--- a/ig/ch-lab-report/StructureDefinition-ch-lab-specimen.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-specimen.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>CH LAB Specimen</t>
+    <t>CH LAB-Report Specimen</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T09:40:37+00:00</t>
+    <t>2024-12-18T08:59:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(WORK))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1006,7 +1006,7 @@
     <t>Specimen.processing.additive</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Substance|http://fhir.ch/ig/ch-lab-report/StructureDefinition/specimen-additive-substance-eu-lab)
+    <t xml:space="preserve">Reference(Substance|http://fhir.ch/ig/ch-lab-report/StructureDefinition/ch-lab-specimen-additive-substance)
 </t>
   </si>
   <si>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>87</v>

--- a/ig/ch-lab-report/StructureDefinition-ch-lab-specimen.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-specimen.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T08:59:06+00:00</t>
+    <t>2025-05-22T14:17:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(work))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1523,17 +1523,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.25" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.5078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.07421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="165.4921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="141.87890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1542,25 +1542,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.1484375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="63.2421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="36.70703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="48.99609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.21875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="31.46875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="99.94921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="54.51171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="85.6875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="46.734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-lab-report/StructureDefinition-ch-lab-specimen.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-specimen.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="381">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T14:17:25+00:00</t>
+    <t>2025-12-16T10:40:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -361,7 +361,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -623,7 +623,7 @@
     <t>Specimen.request</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
+    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -710,7 +710,7 @@
     <t>bodySite</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {bodySite}
+    <t xml:space="preserve">Extension {bodySite|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -718,18 +718,18 @@
   </si>
   <si>
     <t>Record details about the anatomical location of a specimen or body part. This resource may be used when a coded concept does not provide the necessary detail needed for the use case.</t>
-  </si>
-  <si>
-    <t>Specimen.collection.extension:bodySite.id</t>
-  </si>
-  <si>
-    <t>Specimen.collection.extension.id</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t>Specimen.collection.extension:bodySite.id</t>
+  </si>
+  <si>
+    <t>Specimen.collection.extension.id</t>
+  </si>
+  <si>
     <t>Specimen.collection.extension:bodySite.extension</t>
   </si>
   <si>
@@ -773,14 +773,10 @@
     <t>Value of extension</t>
   </si>
   <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ext-1
-</t>
   </si>
   <si>
     <t>Specimen.collection.modifierExtension</t>
@@ -803,7 +799,7 @@
     <t>Specimen.collection.collector</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -860,7 +856,7 @@
     <t>Specimen.collection.quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -891,7 +887,7 @@
     <t>The  technique that is used to perform the procedure.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/specimen-collection-method</t>
+    <t>http://hl7.org/fhir/ValueSet/specimen-collection-method|4.0.1</t>
   </si>
   <si>
     <t>.methodCode</t>
@@ -1000,7 +996,7 @@
     <t>Type indicating the technique used to process the specimen.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/specimen-processing-procedure</t>
+    <t>http://hl7.org/fhir/ValueSet/specimen-processing-procedure|4.0.1</t>
   </si>
   <si>
     <t>Specimen.processing.additive</t>
@@ -1141,7 +1137,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(Substance)</t>
+Reference(Substance|4.0.1)</t>
   </si>
   <si>
     <t>Additive associated with container</t>
@@ -3980,7 +3976,7 @@
         <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>78</v>
+        <v>226</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>138</v>
@@ -3997,10 +3993,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4023,7 +4019,7 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>211</v>
@@ -4089,7 +4085,7 @@
         <v>87</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>228</v>
+        <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>78</v>
@@ -4418,7 +4414,7 @@
         <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>99</v>
@@ -4435,14 +4431,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4464,10 +4460,10 @@
         <v>133</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="N27" t="s" s="2">
         <v>136</v>
@@ -4522,7 +4518,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4548,10 +4544,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4574,13 +4570,13 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4631,7 +4627,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4646,21 +4642,21 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4683,13 +4679,13 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4740,7 +4736,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4755,21 +4751,21 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>264</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4792,13 +4788,13 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4849,7 +4845,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -4867,7 +4863,7 @@
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -4875,10 +4871,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4901,13 +4897,13 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4958,7 +4954,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -4973,21 +4969,21 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>274</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5013,10 +5009,10 @@
         <v>167</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5043,14 +5039,14 @@
         <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="Y32" t="s" s="2">
+      <c r="Z32" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>280</v>
-      </c>
       <c r="AA32" t="s" s="2">
         <v>78</v>
       </c>
@@ -5067,7 +5063,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5082,21 +5078,21 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>282</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5122,13 +5118,13 @@
         <v>167</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5158,7 +5154,7 @@
       </c>
       <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>78</v>
@@ -5176,7 +5172,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5191,21 +5187,21 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>289</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5228,19 +5224,19 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5265,14 +5261,14 @@
         <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="Y34" t="s" s="2">
+      <c r="Z34" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>298</v>
-      </c>
       <c r="AA34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5289,7 +5285,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5310,15 +5306,15 @@
         <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5344,10 +5340,10 @@
         <v>204</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5398,7 +5394,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5413,7 +5409,7 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>78</v>
@@ -5424,10 +5420,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5533,10 +5529,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5565,7 +5561,7 @@
         <v>134</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>136</v>
@@ -5644,14 +5640,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5673,10 +5669,10 @@
         <v>133</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>136</v>
@@ -5731,7 +5727,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -5757,10 +5753,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5786,10 +5782,10 @@
         <v>210</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5840,7 +5836,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -5855,7 +5851,7 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>78</v>
@@ -5866,10 +5862,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5895,10 +5891,10 @@
         <v>167</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5925,14 +5921,14 @@
         <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Y40" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="Z40" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>316</v>
-      </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
       </c>
@@ -5949,7 +5945,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -5975,10 +5971,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6001,13 +5997,13 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6058,7 +6054,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6073,21 +6069,21 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>322</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6110,13 +6106,13 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6167,7 +6163,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6182,7 +6178,7 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>78</v>
@@ -6193,10 +6189,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6222,10 +6218,10 @@
         <v>204</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6276,7 +6272,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6291,7 +6287,7 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>78</v>
@@ -6302,10 +6298,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6411,10 +6407,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6518,13 +6514,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="C46" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>78</v>
@@ -6546,13 +6542,13 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6612,7 +6608,7 @@
         <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>138</v>
@@ -6629,14 +6625,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6658,10 +6654,10 @@
         <v>133</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>136</v>
@@ -6716,7 +6712,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -6742,10 +6738,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6771,10 +6767,10 @@
         <v>145</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6825,7 +6821,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -6846,15 +6842,15 @@
         <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6880,10 +6876,10 @@
         <v>210</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6934,7 +6930,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -6949,7 +6945,7 @@
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>78</v>
@@ -6960,10 +6956,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6989,10 +6985,10 @@
         <v>167</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7023,7 +7019,7 @@
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>78</v>
@@ -7041,7 +7037,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7062,15 +7058,15 @@
         <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7093,13 +7089,13 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7150,7 +7146,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7165,21 +7161,21 @@
         <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>355</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7202,13 +7198,13 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7259,7 +7255,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7274,21 +7270,21 @@
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>360</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7311,13 +7307,13 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7344,14 +7340,14 @@
         <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Y53" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="Z53" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="Z53" t="s" s="2">
-        <v>366</v>
-      </c>
       <c r="AA53" t="s" s="2">
         <v>78</v>
       </c>
@@ -7368,7 +7364,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -7383,21 +7379,21 @@
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>368</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7423,16 +7419,16 @@
         <v>167</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -7457,14 +7453,14 @@
         <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Y54" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Z54" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="Z54" t="s" s="2">
-        <v>375</v>
-      </c>
       <c r="AA54" t="s" s="2">
         <v>78</v>
       </c>
@@ -7481,7 +7477,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -7502,15 +7498,15 @@
         <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7533,13 +7529,13 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>52</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7590,7 +7586,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -7605,13 +7601,13 @@
         <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>381</v>
       </c>
     </row>
   </sheetData>
